--- a/wwwroot/72/BoxBreaking.xlsx
+++ b/wwwroot/72/BoxBreaking.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>SerialNumber</t>
   </si>
@@ -116,7 +116,7 @@
     <t>G604</t>
   </si>
   <si>
-    <t>4 to 7</t>
+    <t>4 to 4</t>
   </si>
   <si>
     <t>G605</t>
@@ -134,9 +134,6 @@
     <t>G608</t>
   </si>
   <si>
-    <t>8 to 8</t>
-  </si>
-  <si>
     <t>BABED201</t>
   </si>
   <si>
@@ -161,7 +158,7 @@
     <t>8 to 11</t>
   </si>
   <si>
-    <t>9 to 12</t>
+    <t>6 to 9</t>
   </si>
   <si>
     <t>3 to 6</t>
@@ -298,7 +295,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="0">
-        <v>1001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -339,7 +336,7 @@
         <v>40</v>
       </c>
       <c r="N3" s="0">
-        <v>1002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -380,7 +377,7 @@
         <v>10</v>
       </c>
       <c r="N4" s="0">
-        <v>1003</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -421,7 +418,7 @@
         <v>10</v>
       </c>
       <c r="N5" s="0">
-        <v>1004</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -462,7 +459,7 @@
         <v>20</v>
       </c>
       <c r="N6" s="0">
-        <v>1005</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -503,7 +500,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="0">
-        <v>1006</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -544,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="N8" s="0">
-        <v>1007</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -564,28 +561,28 @@
         <v>16</v>
       </c>
       <c r="F9" s="0">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J9" s="0">
         <v>4</v>
       </c>
       <c r="K9" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>34</v>
       </c>
       <c r="M9" s="0">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="N9" s="0">
-        <v>1008</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -626,7 +623,7 @@
         <v>10</v>
       </c>
       <c r="N10" s="0">
-        <v>1009</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -667,12 +664,12 @@
         <v>10</v>
       </c>
       <c r="N11" s="0">
-        <v>1010</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>25</v>
@@ -696,19 +693,19 @@
         <v>1</v>
       </c>
       <c r="J12" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K12" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M12" s="0">
         <v>10</v>
       </c>
       <c r="N12" s="0">
-        <v>1011</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -716,10 +713,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>21</v>
@@ -743,13 +740,13 @@
         <v>2</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M13" s="0">
         <v>110</v>
       </c>
       <c r="N13" s="0">
-        <v>1012</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -757,10 +754,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>21</v>
@@ -790,7 +787,7 @@
         <v>50</v>
       </c>
       <c r="N14" s="0">
-        <v>1013</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -798,10 +795,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>21</v>
@@ -825,13 +822,13 @@
         <v>5</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M15" s="0">
         <v>40</v>
       </c>
       <c r="N15" s="0">
-        <v>1014</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -842,7 +839,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>15</v>
@@ -866,24 +863,24 @@
         <v>11</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M16" s="0">
         <v>40</v>
       </c>
       <c r="N16" s="0">
-        <v>1015</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>15</v>
@@ -901,19 +898,19 @@
         <v>4</v>
       </c>
       <c r="J17" s="0">
+        <v>6</v>
+      </c>
+      <c r="K17" s="0">
         <v>9</v>
       </c>
-      <c r="K17" s="0">
-        <v>12</v>
-      </c>
       <c r="L17" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M17" s="0">
         <v>40</v>
       </c>
       <c r="N17" s="0">
-        <v>1016</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -921,10 +918,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>21</v>
@@ -948,13 +945,13 @@
         <v>6</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="0">
         <v>40</v>
       </c>
       <c r="N18" s="0">
-        <v>1017</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -965,7 +962,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>21</v>
@@ -989,13 +986,13 @@
         <v>8</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M19" s="0">
         <v>40</v>
       </c>
       <c r="N19" s="0">
-        <v>1018</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
